--- a/doc/jfspecial_v1.0表结构说明.xlsx
+++ b/doc/jfspecial_v1.0表结构说明.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE36039-FBFE-4D86-9CB1-5D40F6C317E8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7274E59B-3A53-428A-8522-67F4A5449AB1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1110" yWindow="0" windowWidth="19380" windowHeight="9120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="432">
   <si>
     <t/>
   </si>
@@ -1820,6 +1820,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>草稿箱0=不在/1=在草稿箱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2237,17 +2241,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -2266,6 +2259,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2277,6 +2275,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2298,12 +2308,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3146,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3164,32 +3168,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="50" t="s">
+      <c r="H1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -3197,47 +3201,47 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="50" t="s">
+      <c r="B3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="56"/>
+      <c r="H3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -3245,66 +3249,66 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="50" t="s">
+      <c r="B4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B5" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="50" t="s">
+      <c r="B5" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3873,58 +3877,58 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
     </row>
     <row r="30" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G30" s="51" t="s">
+      <c r="B30" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H30" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="50" t="s">
+      <c r="H30" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -3932,47 +3936,47 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="52"/>
       <c r="K31" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="50" t="s">
+      <c r="B32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="56"/>
+      <c r="H32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
@@ -3980,66 +3984,66 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H33" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I33" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" s="50" t="s">
+      <c r="B33" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K33" s="34"/>
     </row>
     <row r="34" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B34" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K34" s="50" t="s">
+      <c r="B34" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4279,7 +4283,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="7" t="s">
-        <v>293</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.45" customHeight="1">
@@ -4512,58 +4516,58 @@
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
     </row>
     <row r="54" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="47"/>
-      <c r="K54" s="47"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
     </row>
     <row r="55" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A55" s="48" t="s">
+      <c r="A55" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D55" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E55" s="49"/>
-      <c r="F55" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="51" t="s">
+      <c r="B55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="54"/>
+      <c r="F55" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H55" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="50" t="s">
+      <c r="H55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -4571,47 +4575,47 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="57"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="51"/>
+      <c r="I56" s="51"/>
+      <c r="J56" s="52"/>
       <c r="K56" s="36" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" s="58"/>
-      <c r="H57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I57" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="50" t="s">
+      <c r="B57" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="54"/>
+      <c r="F57" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="56"/>
+      <c r="H57" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K57" s="37" t="s">
@@ -4619,66 +4623,66 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B58" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="49"/>
-      <c r="F58" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="50" t="s">
+      <c r="B58" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="54"/>
+      <c r="F58" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B59" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="50" t="s">
+      <c r="B59" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5053,58 +5057,58 @@
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="47"/>
-      <c r="I74" s="47"/>
-      <c r="J74" s="47"/>
-      <c r="K74" s="47"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="60"/>
     </row>
     <row r="75" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="47"/>
-      <c r="I75" s="47"/>
-      <c r="J75" s="47"/>
-      <c r="K75" s="47"/>
+      <c r="A75" s="60"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="60"/>
+      <c r="F75" s="60"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="60"/>
+      <c r="J75" s="60"/>
+      <c r="K75" s="60"/>
     </row>
     <row r="76" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="49"/>
-      <c r="F76" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="51" t="s">
+      <c r="B76" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="54"/>
+      <c r="F76" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="50" t="s">
+      <c r="H76" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K76" s="2" t="s">
@@ -5112,47 +5116,47 @@
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="54"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="57"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="52"/>
       <c r="K77" s="36" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A78" s="48" t="s">
+      <c r="A78" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="49"/>
-      <c r="F78" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="58"/>
-      <c r="H78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J78" s="50" t="s">
+      <c r="B78" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="54"/>
+      <c r="F78" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="56"/>
+      <c r="H78" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K78" s="37" t="s">
@@ -5160,66 +5164,66 @@
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E79" s="49"/>
-      <c r="F79" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G79" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I79" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J79" s="50" t="s">
+      <c r="B79" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="54"/>
+      <c r="F79" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H79" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A80" s="60" t="s">
+      <c r="A80" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B80" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J80" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K80" s="50" t="s">
+      <c r="B80" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5594,58 +5598,58 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A95" s="47"/>
-      <c r="B95" s="47"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="47"/>
-      <c r="I95" s="47"/>
-      <c r="J95" s="47"/>
-      <c r="K95" s="47"/>
+      <c r="A95" s="60"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
     </row>
     <row r="96" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A96" s="47"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
+      <c r="A96" s="60"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
     </row>
     <row r="97" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B97" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C97" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D97" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E97" s="49"/>
-      <c r="F97" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G97" s="51" t="s">
+      <c r="B97" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H97" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I97" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J97" s="50" t="s">
+      <c r="H97" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
@@ -5653,47 +5657,47 @@
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="56"/>
-      <c r="J98" s="57"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="49"/>
+      <c r="G98" s="50"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="52"/>
       <c r="K98" s="36" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A99" s="48" t="s">
+      <c r="A99" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E99" s="49"/>
-      <c r="F99" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" s="58"/>
-      <c r="H99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J99" s="50" t="s">
+      <c r="B99" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="54"/>
+      <c r="F99" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" s="56"/>
+      <c r="H99" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I99" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K99" s="37" t="s">
@@ -5701,66 +5705,66 @@
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B100" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D100" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E100" s="49"/>
-      <c r="F100" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H100" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I100" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J100" s="50" t="s">
+      <c r="B100" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="54"/>
+      <c r="F100" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K100" s="35"/>
     </row>
     <row r="101" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A101" s="60" t="s">
+      <c r="A101" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B101" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C101" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J101" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101" s="50" t="s">
+      <c r="B101" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6135,58 +6139,58 @@
       </c>
     </row>
     <row r="116" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A116" s="47"/>
-      <c r="B116" s="47"/>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47"/>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
-      <c r="K116" s="47"/>
+      <c r="A116" s="60"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
     </row>
     <row r="117" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A117" s="47"/>
-      <c r="B117" s="47"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="47"/>
-      <c r="H117" s="47"/>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
-      <c r="K117" s="47"/>
+      <c r="A117" s="60"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
     </row>
     <row r="118" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A118" s="48" t="s">
+      <c r="A118" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B118" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="49"/>
-      <c r="F118" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G118" s="51" t="s">
+      <c r="B118" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="54"/>
+      <c r="F118" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G118" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H118" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I118" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J118" s="50" t="s">
+      <c r="H118" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K118" s="2" t="s">
@@ -6194,47 +6198,47 @@
       </c>
     </row>
     <row r="119" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A119" s="52" t="s">
+      <c r="A119" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="B119" s="53"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="53"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="55"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="57"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="52"/>
       <c r="K119" s="36" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A120" s="48" t="s">
+      <c r="A120" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B120" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E120" s="49"/>
-      <c r="F120" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G120" s="58"/>
-      <c r="H120" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I120" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J120" s="50" t="s">
+      <c r="B120" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="54"/>
+      <c r="F120" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G120" s="56"/>
+      <c r="H120" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I120" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K120" s="37" t="s">
@@ -6242,66 +6246,66 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" s="49"/>
-      <c r="F121" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G121" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H121" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I121" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J121" s="50" t="s">
+      <c r="B121" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="54"/>
+      <c r="F121" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G121" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H121" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K121" s="35"/>
     </row>
     <row r="122" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A122" s="60" t="s">
+      <c r="A122" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J122" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K122" s="50" t="s">
+      <c r="B122" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K122" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6676,58 +6680,58 @@
       </c>
     </row>
     <row r="137" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A137" s="47"/>
-      <c r="B137" s="47"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="47"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="60"/>
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
     </row>
     <row r="138" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A138" s="47"/>
-      <c r="B138" s="47"/>
-      <c r="C138" s="47"/>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="47"/>
-      <c r="K138" s="47"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
     </row>
     <row r="139" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C139" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E139" s="49"/>
-      <c r="F139" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G139" s="51" t="s">
+      <c r="B139" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="54"/>
+      <c r="F139" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H139" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I139" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J139" s="50" t="s">
+      <c r="H139" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I139" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K139" s="2" t="s">
@@ -6735,47 +6739,47 @@
       </c>
     </row>
     <row r="140" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="54"/>
-      <c r="G140" s="55"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="57"/>
+      <c r="B140" s="48"/>
+      <c r="C140" s="48"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="48"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="50"/>
+      <c r="H140" s="51"/>
+      <c r="I140" s="51"/>
+      <c r="J140" s="52"/>
       <c r="K140" s="36" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B141" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C141" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E141" s="49"/>
-      <c r="F141" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G141" s="58"/>
-      <c r="H141" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I141" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J141" s="50" t="s">
+      <c r="B141" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="54"/>
+      <c r="F141" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="56"/>
+      <c r="H141" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I141" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K141" s="37" t="s">
@@ -6783,66 +6787,66 @@
       </c>
     </row>
     <row r="142" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B142" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C142" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E142" s="49"/>
-      <c r="F142" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G142" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H142" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I142" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J142" s="50" t="s">
+      <c r="B142" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="54"/>
+      <c r="F142" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G142" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H142" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I142" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J142" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K142" s="35"/>
     </row>
     <row r="143" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A143" s="60" t="s">
+      <c r="A143" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B143" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C143" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J143" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K143" s="50" t="s">
+      <c r="B143" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="54"/>
+      <c r="F143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K143" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7217,58 +7221,58 @@
       </c>
     </row>
     <row r="158" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A158" s="47"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="47"/>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
-      <c r="I158" s="47"/>
-      <c r="J158" s="47"/>
-      <c r="K158" s="47"/>
+      <c r="A158" s="60"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
     </row>
     <row r="159" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A159" s="47"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
-      <c r="I159" s="47"/>
-      <c r="J159" s="47"/>
-      <c r="K159" s="47"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
     </row>
     <row r="160" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B160" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C160" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E160" s="49"/>
-      <c r="F160" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G160" s="51" t="s">
+      <c r="B160" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="54"/>
+      <c r="F160" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H160" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J160" s="50" t="s">
+      <c r="H160" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K160" s="2" t="s">
@@ -7276,47 +7280,47 @@
       </c>
     </row>
     <row r="161" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="54"/>
-      <c r="G161" s="55"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="56"/>
-      <c r="J161" s="57"/>
+      <c r="B161" s="48"/>
+      <c r="C161" s="48"/>
+      <c r="D161" s="48"/>
+      <c r="E161" s="48"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="51"/>
+      <c r="I161" s="51"/>
+      <c r="J161" s="52"/>
       <c r="K161" s="36" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B162" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C162" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E162" s="49"/>
-      <c r="F162" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G162" s="58"/>
-      <c r="H162" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I162" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J162" s="50" t="s">
+      <c r="B162" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="54"/>
+      <c r="F162" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="56"/>
+      <c r="H162" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K162" s="37" t="s">
@@ -7324,66 +7328,66 @@
       </c>
     </row>
     <row r="163" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B163" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D163" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E163" s="49"/>
-      <c r="F163" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G163" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H163" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I163" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J163" s="50" t="s">
+      <c r="B163" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="54"/>
+      <c r="F163" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H163" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K163" s="35"/>
     </row>
     <row r="164" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A164" s="60" t="s">
+      <c r="A164" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B164" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J164" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K164" s="50" t="s">
+      <c r="B164" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="54"/>
+      <c r="F164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K164" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7758,58 +7762,58 @@
       </c>
     </row>
     <row r="179" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A179" s="69"/>
-      <c r="B179" s="69"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
-      <c r="E179" s="69"/>
-      <c r="F179" s="69"/>
-      <c r="G179" s="69"/>
-      <c r="H179" s="69"/>
-      <c r="I179" s="69"/>
-      <c r="J179" s="69"/>
-      <c r="K179" s="69"/>
+      <c r="A179" s="62"/>
+      <c r="B179" s="62"/>
+      <c r="C179" s="62"/>
+      <c r="D179" s="62"/>
+      <c r="E179" s="62"/>
+      <c r="F179" s="62"/>
+      <c r="G179" s="62"/>
+      <c r="H179" s="62"/>
+      <c r="I179" s="62"/>
+      <c r="J179" s="62"/>
+      <c r="K179" s="62"/>
     </row>
     <row r="180" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A180" s="70"/>
-      <c r="B180" s="70"/>
-      <c r="C180" s="70"/>
-      <c r="D180" s="70"/>
-      <c r="E180" s="70"/>
-      <c r="F180" s="70"/>
-      <c r="G180" s="70"/>
-      <c r="H180" s="70"/>
-      <c r="I180" s="70"/>
-      <c r="J180" s="70"/>
-      <c r="K180" s="70"/>
+      <c r="A180" s="63"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
     </row>
     <row r="181" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A181" s="48" t="s">
+      <c r="A181" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B181" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C181" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D181" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E181" s="49"/>
-      <c r="F181" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G181" s="51" t="s">
+      <c r="B181" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181" s="54"/>
+      <c r="F181" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H181" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I181" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J181" s="50" t="s">
+      <c r="H181" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K181" s="2" t="s">
@@ -7817,47 +7821,47 @@
       </c>
     </row>
     <row r="182" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A182" s="52" t="s">
+      <c r="A182" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="56"/>
-      <c r="J182" s="57"/>
+      <c r="B182" s="48"/>
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="51"/>
+      <c r="I182" s="51"/>
+      <c r="J182" s="52"/>
       <c r="K182" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A183" s="48" t="s">
+      <c r="A183" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B183" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D183" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E183" s="49"/>
-      <c r="F183" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G183" s="58"/>
-      <c r="H183" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I183" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J183" s="50" t="s">
+      <c r="B183" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E183" s="54"/>
+      <c r="F183" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G183" s="56"/>
+      <c r="H183" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K183" s="3" t="s">
@@ -7865,66 +7869,66 @@
       </c>
     </row>
     <row r="184" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A184" s="52" t="s">
+      <c r="A184" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B184" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C184" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D184" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E184" s="49"/>
-      <c r="F184" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G184" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H184" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I184" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J184" s="50" t="s">
+      <c r="B184" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E184" s="54"/>
+      <c r="F184" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G184" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H184" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J184" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K184" s="34"/>
     </row>
     <row r="185" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A185" s="60" t="s">
+      <c r="A185" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E185" s="49"/>
-      <c r="F185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J185" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K185" s="50" t="s">
+      <c r="B185" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="54"/>
+      <c r="F185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J185" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K185" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8293,84 +8297,84 @@
       </c>
     </row>
     <row r="200" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A200" s="47"/>
-      <c r="B200" s="47"/>
-      <c r="C200" s="47"/>
-      <c r="D200" s="47"/>
-      <c r="E200" s="47"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="47"/>
-      <c r="J200" s="47"/>
-      <c r="K200" s="47"/>
+      <c r="A200" s="60"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="60"/>
+      <c r="F200" s="60"/>
+      <c r="G200" s="60"/>
+      <c r="H200" s="60"/>
+      <c r="I200" s="60"/>
+      <c r="J200" s="60"/>
+      <c r="K200" s="60"/>
     </row>
     <row r="201" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A201" s="47"/>
-      <c r="B201" s="47"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="47"/>
-      <c r="E201" s="47"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" s="47"/>
-      <c r="I201" s="47"/>
-      <c r="J201" s="47"/>
-      <c r="K201" s="47"/>
+      <c r="A201" s="60"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="60"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="60"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="60"/>
+      <c r="K201" s="60"/>
     </row>
     <row r="202" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A202" s="47"/>
-      <c r="B202" s="47"/>
-      <c r="C202" s="47"/>
-      <c r="D202" s="47"/>
-      <c r="E202" s="47"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="47"/>
-      <c r="I202" s="47"/>
-      <c r="J202" s="47"/>
-      <c r="K202" s="47"/>
+      <c r="A202" s="60"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
+      <c r="F202" s="60"/>
+      <c r="G202" s="60"/>
+      <c r="H202" s="60"/>
+      <c r="I202" s="60"/>
+      <c r="J202" s="60"/>
+      <c r="K202" s="60"/>
     </row>
     <row r="203" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A203" s="47"/>
-      <c r="B203" s="47"/>
-      <c r="C203" s="47"/>
-      <c r="D203" s="47"/>
-      <c r="E203" s="47"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="47"/>
-      <c r="H203" s="47"/>
-      <c r="I203" s="47"/>
-      <c r="J203" s="47"/>
-      <c r="K203" s="47"/>
+      <c r="A203" s="60"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="60"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="60"/>
+      <c r="G203" s="60"/>
+      <c r="H203" s="60"/>
+      <c r="I203" s="60"/>
+      <c r="J203" s="60"/>
+      <c r="K203" s="60"/>
     </row>
     <row r="204" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A204" s="48" t="s">
+      <c r="A204" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B204" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C204" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D204" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E204" s="49"/>
-      <c r="F204" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G204" s="51" t="s">
+      <c r="B204" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E204" s="54"/>
+      <c r="F204" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G204" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H204" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I204" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J204" s="50" t="s">
+      <c r="H204" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I204" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J204" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K204" s="2" t="s">
@@ -8378,47 +8382,47 @@
       </c>
     </row>
     <row r="205" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A205" s="52" t="s">
+      <c r="A205" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B205" s="53"/>
-      <c r="C205" s="53"/>
-      <c r="D205" s="53"/>
-      <c r="E205" s="53"/>
-      <c r="F205" s="54"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="56"/>
-      <c r="I205" s="56"/>
-      <c r="J205" s="57"/>
+      <c r="B205" s="48"/>
+      <c r="C205" s="48"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="48"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="52"/>
       <c r="K205" s="5" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A206" s="48" t="s">
+      <c r="A206" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B206" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C206" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E206" s="49"/>
-      <c r="F206" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G206" s="58"/>
-      <c r="H206" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I206" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J206" s="50" t="s">
+      <c r="B206" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E206" s="54"/>
+      <c r="F206" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G206" s="56"/>
+      <c r="H206" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I206" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J206" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K206" s="3" t="s">
@@ -8426,66 +8430,66 @@
       </c>
     </row>
     <row r="207" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B207" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C207" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D207" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E207" s="49"/>
-      <c r="F207" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G207" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H207" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I207" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J207" s="50" t="s">
+      <c r="B207" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E207" s="54"/>
+      <c r="F207" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G207" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H207" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J207" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K207" s="34"/>
     </row>
     <row r="208" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A208" s="60" t="s">
+      <c r="A208" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B208" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C208" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E208" s="49"/>
-      <c r="F208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J208" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K208" s="50" t="s">
+      <c r="B208" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E208" s="54"/>
+      <c r="F208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J208" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K208" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8818,30 +8822,30 @@
       </c>
     </row>
     <row r="221" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A221" s="47"/>
-      <c r="B221" s="47"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="47"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="47"/>
-      <c r="I221" s="47"/>
-      <c r="J221" s="47"/>
-      <c r="K221" s="47"/>
+      <c r="A221" s="60"/>
+      <c r="B221" s="60"/>
+      <c r="C221" s="60"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="60"/>
+      <c r="F221" s="60"/>
+      <c r="G221" s="60"/>
+      <c r="H221" s="60"/>
+      <c r="I221" s="60"/>
+      <c r="J221" s="60"/>
+      <c r="K221" s="60"/>
     </row>
     <row r="222" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A222" s="47"/>
-      <c r="B222" s="47"/>
-      <c r="C222" s="47"/>
-      <c r="D222" s="47"/>
-      <c r="E222" s="47"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="47"/>
-      <c r="H222" s="47"/>
-      <c r="I222" s="47"/>
-      <c r="J222" s="47"/>
-      <c r="K222" s="47"/>
+      <c r="A222" s="60"/>
+      <c r="B222" s="60"/>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="60"/>
+      <c r="G222" s="60"/>
+      <c r="H222" s="60"/>
+      <c r="I222" s="60"/>
+      <c r="J222" s="60"/>
+      <c r="K222" s="60"/>
     </row>
     <row r="223" spans="1:11" ht="14.45" customHeight="1">
       <c r="A223" s="41" t="s">
@@ -8877,18 +8881,18 @@
       </c>
     </row>
     <row r="224" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A224" s="52" t="s">
+      <c r="A224" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B224" s="53"/>
-      <c r="C224" s="53"/>
-      <c r="D224" s="53"/>
-      <c r="E224" s="53"/>
-      <c r="F224" s="54"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="67"/>
-      <c r="I224" s="67"/>
-      <c r="J224" s="68"/>
+      <c r="B224" s="48"/>
+      <c r="C224" s="48"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="50"/>
+      <c r="H224" s="69"/>
+      <c r="I224" s="69"/>
+      <c r="J224" s="70"/>
       <c r="K224" s="5" t="s">
         <v>383</v>
       </c>
@@ -8925,66 +8929,66 @@
       </c>
     </row>
     <row r="226" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A226" s="52" t="s">
+      <c r="A226" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B226" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C226" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E226" s="53"/>
-      <c r="F226" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="G226" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="H226" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="I226" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="J226" s="63" t="s">
+      <c r="B226" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E226" s="48"/>
+      <c r="F226" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="G226" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="H226" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I226" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J226" s="65" t="s">
         <v>0</v>
       </c>
       <c r="K226" s="34"/>
     </row>
     <row r="227" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A227" s="60" t="s">
+      <c r="A227" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B227" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="E227" s="61"/>
-      <c r="F227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="G227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="I227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="J227" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="K227" s="66" t="s">
+      <c r="B227" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E227" s="59"/>
+      <c r="F227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="G227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="H227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J227" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K227" s="68" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9508,58 +9512,58 @@
       </c>
     </row>
     <row r="247" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A247" s="47"/>
-      <c r="B247" s="47"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="47"/>
-      <c r="E247" s="47"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="47"/>
-      <c r="H247" s="47"/>
-      <c r="I247" s="47"/>
-      <c r="J247" s="47"/>
-      <c r="K247" s="47"/>
+      <c r="A247" s="60"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="60"/>
+      <c r="D247" s="60"/>
+      <c r="E247" s="60"/>
+      <c r="F247" s="60"/>
+      <c r="G247" s="60"/>
+      <c r="H247" s="60"/>
+      <c r="I247" s="60"/>
+      <c r="J247" s="60"/>
+      <c r="K247" s="60"/>
     </row>
     <row r="248" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A248" s="47"/>
-      <c r="B248" s="47"/>
-      <c r="C248" s="47"/>
-      <c r="D248" s="47"/>
-      <c r="E248" s="47"/>
-      <c r="F248" s="47"/>
-      <c r="G248" s="47"/>
-      <c r="H248" s="47"/>
-      <c r="I248" s="47"/>
-      <c r="J248" s="47"/>
-      <c r="K248" s="47"/>
+      <c r="A248" s="60"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="60"/>
+      <c r="D248" s="60"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="60"/>
+      <c r="H248" s="60"/>
+      <c r="I248" s="60"/>
+      <c r="J248" s="60"/>
+      <c r="K248" s="60"/>
     </row>
     <row r="249" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A249" s="48" t="s">
+      <c r="A249" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B249" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C249" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D249" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E249" s="49"/>
-      <c r="F249" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G249" s="51" t="s">
+      <c r="B249" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E249" s="54"/>
+      <c r="F249" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G249" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H249" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I249" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J249" s="50" t="s">
+      <c r="H249" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I249" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J249" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K249" s="2" t="s">
@@ -9567,47 +9571,47 @@
       </c>
     </row>
     <row r="250" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A250" s="52" t="s">
+      <c r="A250" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B250" s="53"/>
-      <c r="C250" s="53"/>
-      <c r="D250" s="53"/>
-      <c r="E250" s="53"/>
-      <c r="F250" s="54"/>
-      <c r="G250" s="55"/>
-      <c r="H250" s="56"/>
-      <c r="I250" s="56"/>
-      <c r="J250" s="57"/>
+      <c r="B250" s="48"/>
+      <c r="C250" s="48"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="48"/>
+      <c r="F250" s="49"/>
+      <c r="G250" s="50"/>
+      <c r="H250" s="51"/>
+      <c r="I250" s="51"/>
+      <c r="J250" s="52"/>
       <c r="K250" s="5" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A251" s="48" t="s">
+      <c r="A251" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B251" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C251" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D251" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E251" s="49"/>
-      <c r="F251" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G251" s="58"/>
-      <c r="H251" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I251" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J251" s="50" t="s">
+      <c r="B251" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E251" s="54"/>
+      <c r="F251" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G251" s="56"/>
+      <c r="H251" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I251" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J251" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K251" s="3" t="s">
@@ -9615,66 +9619,66 @@
       </c>
     </row>
     <row r="252" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A252" s="52" t="s">
+      <c r="A252" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B252" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D252" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E252" s="49"/>
-      <c r="F252" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G252" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H252" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I252" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J252" s="50" t="s">
+      <c r="B252" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E252" s="54"/>
+      <c r="F252" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G252" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H252" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I252" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J252" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K252" s="34"/>
     </row>
     <row r="253" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A253" s="60" t="s">
+      <c r="A253" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B253" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C253" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E253" s="49"/>
-      <c r="F253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J253" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K253" s="50" t="s">
+      <c r="B253" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E253" s="54"/>
+      <c r="F253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J253" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K253" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9949,58 +9953,58 @@
       </c>
     </row>
     <row r="264" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A264" s="47"/>
-      <c r="B264" s="47"/>
-      <c r="C264" s="47"/>
-      <c r="D264" s="47"/>
-      <c r="E264" s="47"/>
-      <c r="F264" s="47"/>
-      <c r="G264" s="47"/>
-      <c r="H264" s="47"/>
-      <c r="I264" s="47"/>
-      <c r="J264" s="47"/>
-      <c r="K264" s="47"/>
+      <c r="A264" s="60"/>
+      <c r="B264" s="60"/>
+      <c r="C264" s="60"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="60"/>
+      <c r="F264" s="60"/>
+      <c r="G264" s="60"/>
+      <c r="H264" s="60"/>
+      <c r="I264" s="60"/>
+      <c r="J264" s="60"/>
+      <c r="K264" s="60"/>
     </row>
     <row r="265" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A265" s="47"/>
-      <c r="B265" s="47"/>
-      <c r="C265" s="47"/>
-      <c r="D265" s="47"/>
-      <c r="E265" s="47"/>
-      <c r="F265" s="47"/>
-      <c r="G265" s="47"/>
-      <c r="H265" s="47"/>
-      <c r="I265" s="47"/>
-      <c r="J265" s="47"/>
-      <c r="K265" s="47"/>
+      <c r="A265" s="60"/>
+      <c r="B265" s="60"/>
+      <c r="C265" s="60"/>
+      <c r="D265" s="60"/>
+      <c r="E265" s="60"/>
+      <c r="F265" s="60"/>
+      <c r="G265" s="60"/>
+      <c r="H265" s="60"/>
+      <c r="I265" s="60"/>
+      <c r="J265" s="60"/>
+      <c r="K265" s="60"/>
     </row>
     <row r="266" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A266" s="48" t="s">
+      <c r="A266" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B266" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C266" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D266" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E266" s="49"/>
-      <c r="F266" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G266" s="51" t="s">
+      <c r="B266" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E266" s="54"/>
+      <c r="F266" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G266" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H266" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I266" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J266" s="50" t="s">
+      <c r="H266" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I266" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J266" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K266" s="2" t="s">
@@ -10008,47 +10012,47 @@
       </c>
     </row>
     <row r="267" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A267" s="52" t="s">
+      <c r="A267" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B267" s="53"/>
-      <c r="C267" s="53"/>
-      <c r="D267" s="53"/>
-      <c r="E267" s="53"/>
-      <c r="F267" s="54"/>
-      <c r="G267" s="55"/>
-      <c r="H267" s="56"/>
-      <c r="I267" s="56"/>
-      <c r="J267" s="57"/>
+      <c r="B267" s="48"/>
+      <c r="C267" s="48"/>
+      <c r="D267" s="48"/>
+      <c r="E267" s="48"/>
+      <c r="F267" s="49"/>
+      <c r="G267" s="50"/>
+      <c r="H267" s="51"/>
+      <c r="I267" s="51"/>
+      <c r="J267" s="52"/>
       <c r="K267" s="5" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="268" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A268" s="48" t="s">
+      <c r="A268" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B268" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C268" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D268" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E268" s="49"/>
-      <c r="F268" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G268" s="58"/>
-      <c r="H268" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I268" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J268" s="50" t="s">
+      <c r="B268" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E268" s="54"/>
+      <c r="F268" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G268" s="56"/>
+      <c r="H268" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I268" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J268" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K268" s="3" t="s">
@@ -10056,66 +10060,66 @@
       </c>
     </row>
     <row r="269" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A269" s="52" t="s">
+      <c r="A269" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B269" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C269" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D269" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E269" s="49"/>
-      <c r="F269" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G269" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H269" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I269" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J269" s="50" t="s">
+      <c r="B269" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E269" s="54"/>
+      <c r="F269" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G269" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H269" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I269" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J269" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K269" s="34"/>
     </row>
     <row r="270" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A270" s="60" t="s">
+      <c r="A270" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B270" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C270" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E270" s="49"/>
-      <c r="F270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J270" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K270" s="50" t="s">
+      <c r="B270" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E270" s="54"/>
+      <c r="F270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J270" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K270" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10396,58 +10400,58 @@
       </c>
     </row>
     <row r="281" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A281" s="47"/>
-      <c r="B281" s="47"/>
-      <c r="C281" s="47"/>
-      <c r="D281" s="47"/>
-      <c r="E281" s="47"/>
-      <c r="F281" s="47"/>
-      <c r="G281" s="47"/>
-      <c r="H281" s="47"/>
-      <c r="I281" s="47"/>
-      <c r="J281" s="47"/>
-      <c r="K281" s="47"/>
+      <c r="A281" s="60"/>
+      <c r="B281" s="60"/>
+      <c r="C281" s="60"/>
+      <c r="D281" s="60"/>
+      <c r="E281" s="60"/>
+      <c r="F281" s="60"/>
+      <c r="G281" s="60"/>
+      <c r="H281" s="60"/>
+      <c r="I281" s="60"/>
+      <c r="J281" s="60"/>
+      <c r="K281" s="60"/>
     </row>
     <row r="282" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A282" s="47"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="47"/>
-      <c r="D282" s="47"/>
-      <c r="E282" s="47"/>
-      <c r="F282" s="47"/>
-      <c r="G282" s="47"/>
-      <c r="H282" s="47"/>
-      <c r="I282" s="47"/>
-      <c r="J282" s="47"/>
-      <c r="K282" s="47"/>
+      <c r="A282" s="60"/>
+      <c r="B282" s="60"/>
+      <c r="C282" s="60"/>
+      <c r="D282" s="60"/>
+      <c r="E282" s="60"/>
+      <c r="F282" s="60"/>
+      <c r="G282" s="60"/>
+      <c r="H282" s="60"/>
+      <c r="I282" s="60"/>
+      <c r="J282" s="60"/>
+      <c r="K282" s="60"/>
     </row>
     <row r="283" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A283" s="48" t="s">
+      <c r="A283" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B283" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C283" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D283" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E283" s="49"/>
-      <c r="F283" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G283" s="51" t="s">
+      <c r="B283" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E283" s="54"/>
+      <c r="F283" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G283" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H283" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I283" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J283" s="50" t="s">
+      <c r="H283" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I283" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J283" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K283" s="2" t="s">
@@ -10455,47 +10459,47 @@
       </c>
     </row>
     <row r="284" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A284" s="52" t="s">
+      <c r="A284" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B284" s="53"/>
-      <c r="C284" s="53"/>
-      <c r="D284" s="53"/>
-      <c r="E284" s="53"/>
-      <c r="F284" s="54"/>
-      <c r="G284" s="55"/>
-      <c r="H284" s="56"/>
-      <c r="I284" s="56"/>
-      <c r="J284" s="57"/>
+      <c r="B284" s="48"/>
+      <c r="C284" s="48"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="48"/>
+      <c r="F284" s="49"/>
+      <c r="G284" s="50"/>
+      <c r="H284" s="51"/>
+      <c r="I284" s="51"/>
+      <c r="J284" s="52"/>
       <c r="K284" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="285" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A285" s="48" t="s">
+      <c r="A285" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B285" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C285" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D285" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E285" s="49"/>
-      <c r="F285" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G285" s="58"/>
-      <c r="H285" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I285" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J285" s="50" t="s">
+      <c r="B285" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E285" s="54"/>
+      <c r="F285" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G285" s="56"/>
+      <c r="H285" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I285" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J285" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K285" s="3" t="s">
@@ -10503,66 +10507,66 @@
       </c>
     </row>
     <row r="286" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A286" s="52" t="s">
+      <c r="A286" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B286" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C286" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D286" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E286" s="49"/>
-      <c r="F286" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G286" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H286" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I286" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J286" s="50" t="s">
+      <c r="B286" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E286" s="54"/>
+      <c r="F286" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G286" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H286" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I286" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J286" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K286" s="34"/>
     </row>
     <row r="287" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A287" s="60" t="s">
+      <c r="A287" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B287" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C287" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E287" s="49"/>
-      <c r="F287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J287" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K287" s="50" t="s">
+      <c r="B287" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E287" s="54"/>
+      <c r="F287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J287" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K287" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10858,58 +10862,58 @@
       </c>
     </row>
     <row r="299" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A299" s="47"/>
-      <c r="B299" s="47"/>
-      <c r="C299" s="47"/>
-      <c r="D299" s="47"/>
-      <c r="E299" s="47"/>
-      <c r="F299" s="47"/>
-      <c r="G299" s="47"/>
-      <c r="H299" s="47"/>
-      <c r="I299" s="47"/>
-      <c r="J299" s="47"/>
-      <c r="K299" s="47"/>
+      <c r="A299" s="60"/>
+      <c r="B299" s="60"/>
+      <c r="C299" s="60"/>
+      <c r="D299" s="60"/>
+      <c r="E299" s="60"/>
+      <c r="F299" s="60"/>
+      <c r="G299" s="60"/>
+      <c r="H299" s="60"/>
+      <c r="I299" s="60"/>
+      <c r="J299" s="60"/>
+      <c r="K299" s="60"/>
     </row>
     <row r="300" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A300" s="47"/>
-      <c r="B300" s="47"/>
-      <c r="C300" s="47"/>
-      <c r="D300" s="47"/>
-      <c r="E300" s="47"/>
-      <c r="F300" s="47"/>
-      <c r="G300" s="47"/>
-      <c r="H300" s="47"/>
-      <c r="I300" s="47"/>
-      <c r="J300" s="47"/>
-      <c r="K300" s="47"/>
+      <c r="A300" s="60"/>
+      <c r="B300" s="60"/>
+      <c r="C300" s="60"/>
+      <c r="D300" s="60"/>
+      <c r="E300" s="60"/>
+      <c r="F300" s="60"/>
+      <c r="G300" s="60"/>
+      <c r="H300" s="60"/>
+      <c r="I300" s="60"/>
+      <c r="J300" s="60"/>
+      <c r="K300" s="60"/>
     </row>
     <row r="301" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A301" s="48" t="s">
+      <c r="A301" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B301" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C301" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D301" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E301" s="49"/>
-      <c r="F301" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G301" s="51" t="s">
+      <c r="B301" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E301" s="54"/>
+      <c r="F301" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G301" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H301" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I301" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J301" s="50" t="s">
+      <c r="H301" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I301" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J301" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K301" s="2" t="s">
@@ -10917,47 +10921,47 @@
       </c>
     </row>
     <row r="302" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A302" s="52" t="s">
+      <c r="A302" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B302" s="53"/>
-      <c r="C302" s="53"/>
-      <c r="D302" s="53"/>
-      <c r="E302" s="53"/>
-      <c r="F302" s="54"/>
-      <c r="G302" s="55"/>
-      <c r="H302" s="56"/>
-      <c r="I302" s="56"/>
-      <c r="J302" s="57"/>
+      <c r="B302" s="48"/>
+      <c r="C302" s="48"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="48"/>
+      <c r="F302" s="49"/>
+      <c r="G302" s="50"/>
+      <c r="H302" s="51"/>
+      <c r="I302" s="51"/>
+      <c r="J302" s="52"/>
       <c r="K302" s="5" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A303" s="48" t="s">
+      <c r="A303" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B303" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D303" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E303" s="49"/>
-      <c r="F303" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G303" s="58"/>
-      <c r="H303" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I303" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J303" s="50" t="s">
+      <c r="B303" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E303" s="54"/>
+      <c r="F303" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G303" s="56"/>
+      <c r="H303" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I303" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J303" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K303" s="3" t="s">
@@ -10965,66 +10969,66 @@
       </c>
     </row>
     <row r="304" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A304" s="52" t="s">
+      <c r="A304" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B304" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D304" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E304" s="49"/>
-      <c r="F304" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G304" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H304" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I304" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J304" s="50" t="s">
+      <c r="B304" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E304" s="54"/>
+      <c r="F304" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G304" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H304" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I304" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J304" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K304" s="34"/>
     </row>
     <row r="305" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A305" s="60" t="s">
+      <c r="A305" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B305" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E305" s="49"/>
-      <c r="F305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J305" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K305" s="50" t="s">
+      <c r="B305" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305" s="54"/>
+      <c r="F305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J305" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K305" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11224,58 +11228,58 @@
       </c>
     </row>
     <row r="313" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A313" s="47"/>
-      <c r="B313" s="47"/>
-      <c r="C313" s="47"/>
-      <c r="D313" s="47"/>
-      <c r="E313" s="47"/>
-      <c r="F313" s="47"/>
-      <c r="G313" s="47"/>
-      <c r="H313" s="47"/>
-      <c r="I313" s="47"/>
-      <c r="J313" s="47"/>
-      <c r="K313" s="47"/>
+      <c r="A313" s="60"/>
+      <c r="B313" s="60"/>
+      <c r="C313" s="60"/>
+      <c r="D313" s="60"/>
+      <c r="E313" s="60"/>
+      <c r="F313" s="60"/>
+      <c r="G313" s="60"/>
+      <c r="H313" s="60"/>
+      <c r="I313" s="60"/>
+      <c r="J313" s="60"/>
+      <c r="K313" s="60"/>
     </row>
     <row r="314" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A314" s="47"/>
-      <c r="B314" s="47"/>
-      <c r="C314" s="47"/>
-      <c r="D314" s="47"/>
-      <c r="E314" s="47"/>
-      <c r="F314" s="47"/>
-      <c r="G314" s="47"/>
-      <c r="H314" s="47"/>
-      <c r="I314" s="47"/>
-      <c r="J314" s="47"/>
-      <c r="K314" s="47"/>
+      <c r="A314" s="60"/>
+      <c r="B314" s="60"/>
+      <c r="C314" s="60"/>
+      <c r="D314" s="60"/>
+      <c r="E314" s="60"/>
+      <c r="F314" s="60"/>
+      <c r="G314" s="60"/>
+      <c r="H314" s="60"/>
+      <c r="I314" s="60"/>
+      <c r="J314" s="60"/>
+      <c r="K314" s="60"/>
     </row>
     <row r="315" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A315" s="48" t="s">
+      <c r="A315" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B315" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C315" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D315" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E315" s="49"/>
-      <c r="F315" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G315" s="51" t="s">
+      <c r="B315" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E315" s="54"/>
+      <c r="F315" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G315" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H315" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I315" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J315" s="50" t="s">
+      <c r="H315" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I315" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J315" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K315" s="2" t="s">
@@ -11283,47 +11287,47 @@
       </c>
     </row>
     <row r="316" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A316" s="52" t="s">
+      <c r="A316" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="B316" s="53"/>
-      <c r="C316" s="53"/>
-      <c r="D316" s="53"/>
-      <c r="E316" s="53"/>
-      <c r="F316" s="54"/>
-      <c r="G316" s="55"/>
-      <c r="H316" s="56"/>
-      <c r="I316" s="56"/>
-      <c r="J316" s="57"/>
+      <c r="B316" s="48"/>
+      <c r="C316" s="48"/>
+      <c r="D316" s="48"/>
+      <c r="E316" s="48"/>
+      <c r="F316" s="49"/>
+      <c r="G316" s="50"/>
+      <c r="H316" s="51"/>
+      <c r="I316" s="51"/>
+      <c r="J316" s="52"/>
       <c r="K316" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="317" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A317" s="48" t="s">
+      <c r="A317" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B317" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C317" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D317" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E317" s="49"/>
-      <c r="F317" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G317" s="58"/>
-      <c r="H317" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I317" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J317" s="50" t="s">
+      <c r="B317" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317" s="54"/>
+      <c r="F317" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G317" s="56"/>
+      <c r="H317" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I317" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J317" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K317" s="3" t="s">
@@ -11331,66 +11335,66 @@
       </c>
     </row>
     <row r="318" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A318" s="52" t="s">
+      <c r="A318" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B318" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C318" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D318" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E318" s="49"/>
-      <c r="F318" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G318" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H318" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I318" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J318" s="50" t="s">
+      <c r="B318" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E318" s="54"/>
+      <c r="F318" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G318" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H318" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I318" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J318" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K318" s="34"/>
     </row>
     <row r="319" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A319" s="60" t="s">
+      <c r="A319" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B319" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E319" s="49"/>
-      <c r="F319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J319" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K319" s="50" t="s">
+      <c r="B319" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E319" s="54"/>
+      <c r="F319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J319" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K319" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11528,58 +11532,58 @@
       </c>
     </row>
     <row r="325" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A325" s="47"/>
-      <c r="B325" s="47"/>
-      <c r="C325" s="47"/>
-      <c r="D325" s="47"/>
-      <c r="E325" s="47"/>
-      <c r="F325" s="47"/>
-      <c r="G325" s="47"/>
-      <c r="H325" s="47"/>
-      <c r="I325" s="47"/>
-      <c r="J325" s="47"/>
-      <c r="K325" s="47"/>
+      <c r="A325" s="60"/>
+      <c r="B325" s="60"/>
+      <c r="C325" s="60"/>
+      <c r="D325" s="60"/>
+      <c r="E325" s="60"/>
+      <c r="F325" s="60"/>
+      <c r="G325" s="60"/>
+      <c r="H325" s="60"/>
+      <c r="I325" s="60"/>
+      <c r="J325" s="60"/>
+      <c r="K325" s="60"/>
     </row>
     <row r="326" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A326" s="47"/>
-      <c r="B326" s="47"/>
-      <c r="C326" s="47"/>
-      <c r="D326" s="47"/>
-      <c r="E326" s="47"/>
-      <c r="F326" s="47"/>
-      <c r="G326" s="47"/>
-      <c r="H326" s="47"/>
-      <c r="I326" s="47"/>
-      <c r="J326" s="47"/>
-      <c r="K326" s="47"/>
+      <c r="A326" s="60"/>
+      <c r="B326" s="60"/>
+      <c r="C326" s="60"/>
+      <c r="D326" s="60"/>
+      <c r="E326" s="60"/>
+      <c r="F326" s="60"/>
+      <c r="G326" s="60"/>
+      <c r="H326" s="60"/>
+      <c r="I326" s="60"/>
+      <c r="J326" s="60"/>
+      <c r="K326" s="60"/>
     </row>
     <row r="327" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A327" s="48" t="s">
+      <c r="A327" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B327" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C327" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D327" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E327" s="49"/>
-      <c r="F327" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G327" s="51" t="s">
+      <c r="B327" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E327" s="54"/>
+      <c r="F327" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G327" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H327" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I327" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J327" s="50" t="s">
+      <c r="H327" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I327" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J327" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K327" s="2" t="s">
@@ -11587,47 +11591,47 @@
       </c>
     </row>
     <row r="328" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A328" s="52" t="s">
+      <c r="A328" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="B328" s="53"/>
-      <c r="C328" s="53"/>
-      <c r="D328" s="53"/>
-      <c r="E328" s="53"/>
-      <c r="F328" s="54"/>
-      <c r="G328" s="55"/>
-      <c r="H328" s="56"/>
-      <c r="I328" s="56"/>
-      <c r="J328" s="57"/>
+      <c r="B328" s="48"/>
+      <c r="C328" s="48"/>
+      <c r="D328" s="48"/>
+      <c r="E328" s="48"/>
+      <c r="F328" s="49"/>
+      <c r="G328" s="50"/>
+      <c r="H328" s="51"/>
+      <c r="I328" s="51"/>
+      <c r="J328" s="52"/>
       <c r="K328" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="329" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A329" s="48" t="s">
+      <c r="A329" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B329" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C329" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D329" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E329" s="49"/>
-      <c r="F329" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G329" s="58"/>
-      <c r="H329" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I329" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J329" s="50" t="s">
+      <c r="B329" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E329" s="54"/>
+      <c r="F329" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G329" s="56"/>
+      <c r="H329" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I329" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J329" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K329" s="3" t="s">
@@ -11635,66 +11639,66 @@
       </c>
     </row>
     <row r="330" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A330" s="52" t="s">
+      <c r="A330" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B330" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C330" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D330" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E330" s="49"/>
-      <c r="F330" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G330" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H330" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I330" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J330" s="50" t="s">
+      <c r="B330" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E330" s="54"/>
+      <c r="F330" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G330" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H330" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I330" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J330" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K330" s="34"/>
     </row>
     <row r="331" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A331" s="60" t="s">
+      <c r="A331" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B331" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C331" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E331" s="49"/>
-      <c r="F331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J331" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K331" s="50" t="s">
+      <c r="B331" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E331" s="54"/>
+      <c r="F331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J331" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K331" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11840,58 +11844,58 @@
       </c>
     </row>
     <row r="337" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A337" s="47"/>
-      <c r="B337" s="47"/>
-      <c r="C337" s="47"/>
-      <c r="D337" s="47"/>
-      <c r="E337" s="47"/>
-      <c r="F337" s="47"/>
-      <c r="G337" s="47"/>
-      <c r="H337" s="47"/>
-      <c r="I337" s="47"/>
-      <c r="J337" s="47"/>
-      <c r="K337" s="47"/>
+      <c r="A337" s="60"/>
+      <c r="B337" s="60"/>
+      <c r="C337" s="60"/>
+      <c r="D337" s="60"/>
+      <c r="E337" s="60"/>
+      <c r="F337" s="60"/>
+      <c r="G337" s="60"/>
+      <c r="H337" s="60"/>
+      <c r="I337" s="60"/>
+      <c r="J337" s="60"/>
+      <c r="K337" s="60"/>
     </row>
     <row r="338" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A338" s="47"/>
-      <c r="B338" s="47"/>
-      <c r="C338" s="47"/>
-      <c r="D338" s="47"/>
-      <c r="E338" s="47"/>
-      <c r="F338" s="47"/>
-      <c r="G338" s="47"/>
-      <c r="H338" s="47"/>
-      <c r="I338" s="47"/>
-      <c r="J338" s="47"/>
-      <c r="K338" s="47"/>
+      <c r="A338" s="60"/>
+      <c r="B338" s="60"/>
+      <c r="C338" s="60"/>
+      <c r="D338" s="60"/>
+      <c r="E338" s="60"/>
+      <c r="F338" s="60"/>
+      <c r="G338" s="60"/>
+      <c r="H338" s="60"/>
+      <c r="I338" s="60"/>
+      <c r="J338" s="60"/>
+      <c r="K338" s="60"/>
     </row>
     <row r="339" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A339" s="48" t="s">
+      <c r="A339" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B339" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C339" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D339" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E339" s="49"/>
-      <c r="F339" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G339" s="51" t="s">
+      <c r="B339" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E339" s="54"/>
+      <c r="F339" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G339" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H339" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I339" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J339" s="50" t="s">
+      <c r="H339" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I339" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J339" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K339" s="2" t="s">
@@ -11899,47 +11903,47 @@
       </c>
     </row>
     <row r="340" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A340" s="52" t="s">
+      <c r="A340" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="B340" s="53"/>
-      <c r="C340" s="53"/>
-      <c r="D340" s="53"/>
-      <c r="E340" s="53"/>
-      <c r="F340" s="54"/>
-      <c r="G340" s="55"/>
-      <c r="H340" s="56"/>
-      <c r="I340" s="56"/>
-      <c r="J340" s="57"/>
+      <c r="B340" s="48"/>
+      <c r="C340" s="48"/>
+      <c r="D340" s="48"/>
+      <c r="E340" s="48"/>
+      <c r="F340" s="49"/>
+      <c r="G340" s="50"/>
+      <c r="H340" s="51"/>
+      <c r="I340" s="51"/>
+      <c r="J340" s="52"/>
       <c r="K340" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="341" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A341" s="48" t="s">
+      <c r="A341" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B341" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C341" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D341" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E341" s="49"/>
-      <c r="F341" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G341" s="58"/>
-      <c r="H341" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I341" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J341" s="50" t="s">
+      <c r="B341" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E341" s="54"/>
+      <c r="F341" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G341" s="56"/>
+      <c r="H341" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I341" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J341" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K341" s="3" t="s">
@@ -11947,66 +11951,66 @@
       </c>
     </row>
     <row r="342" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A342" s="52" t="s">
+      <c r="A342" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B342" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C342" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D342" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E342" s="49"/>
-      <c r="F342" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G342" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H342" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I342" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J342" s="50" t="s">
+      <c r="B342" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E342" s="54"/>
+      <c r="F342" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G342" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H342" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I342" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J342" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K342" s="34"/>
     </row>
     <row r="343" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A343" s="60" t="s">
+      <c r="A343" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B343" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C343" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E343" s="49"/>
-      <c r="F343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J343" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K343" s="50" t="s">
+      <c r="B343" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343" s="54"/>
+      <c r="F343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J343" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K343" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12462,58 +12466,58 @@
       </c>
     </row>
     <row r="361" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A361" s="47"/>
-      <c r="B361" s="47"/>
-      <c r="C361" s="47"/>
-      <c r="D361" s="47"/>
-      <c r="E361" s="47"/>
-      <c r="F361" s="47"/>
-      <c r="G361" s="47"/>
-      <c r="H361" s="47"/>
-      <c r="I361" s="47"/>
-      <c r="J361" s="47"/>
-      <c r="K361" s="47"/>
+      <c r="A361" s="60"/>
+      <c r="B361" s="60"/>
+      <c r="C361" s="60"/>
+      <c r="D361" s="60"/>
+      <c r="E361" s="60"/>
+      <c r="F361" s="60"/>
+      <c r="G361" s="60"/>
+      <c r="H361" s="60"/>
+      <c r="I361" s="60"/>
+      <c r="J361" s="60"/>
+      <c r="K361" s="60"/>
     </row>
     <row r="362" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A362" s="47"/>
-      <c r="B362" s="47"/>
-      <c r="C362" s="47"/>
-      <c r="D362" s="47"/>
-      <c r="E362" s="47"/>
-      <c r="F362" s="47"/>
-      <c r="G362" s="47"/>
-      <c r="H362" s="47"/>
-      <c r="I362" s="47"/>
-      <c r="J362" s="47"/>
-      <c r="K362" s="47"/>
+      <c r="A362" s="60"/>
+      <c r="B362" s="60"/>
+      <c r="C362" s="60"/>
+      <c r="D362" s="60"/>
+      <c r="E362" s="60"/>
+      <c r="F362" s="60"/>
+      <c r="G362" s="60"/>
+      <c r="H362" s="60"/>
+      <c r="I362" s="60"/>
+      <c r="J362" s="60"/>
+      <c r="K362" s="60"/>
     </row>
     <row r="363" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A363" s="48" t="s">
+      <c r="A363" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B363" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C363" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D363" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E363" s="49"/>
-      <c r="F363" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G363" s="51" t="s">
+      <c r="B363" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E363" s="54"/>
+      <c r="F363" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G363" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H363" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I363" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J363" s="50" t="s">
+      <c r="H363" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I363" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J363" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K363" s="2" t="s">
@@ -12521,47 +12525,47 @@
       </c>
     </row>
     <row r="364" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A364" s="52" t="s">
+      <c r="A364" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B364" s="53"/>
-      <c r="C364" s="53"/>
-      <c r="D364" s="53"/>
-      <c r="E364" s="53"/>
-      <c r="F364" s="54"/>
-      <c r="G364" s="55"/>
-      <c r="H364" s="56"/>
-      <c r="I364" s="56"/>
-      <c r="J364" s="57"/>
+      <c r="B364" s="48"/>
+      <c r="C364" s="48"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="48"/>
+      <c r="F364" s="49"/>
+      <c r="G364" s="50"/>
+      <c r="H364" s="51"/>
+      <c r="I364" s="51"/>
+      <c r="J364" s="52"/>
       <c r="K364" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="365" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A365" s="48" t="s">
+      <c r="A365" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B365" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C365" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D365" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E365" s="49"/>
-      <c r="F365" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G365" s="58"/>
-      <c r="H365" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I365" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J365" s="50" t="s">
+      <c r="B365" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E365" s="54"/>
+      <c r="F365" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G365" s="56"/>
+      <c r="H365" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I365" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J365" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K365" s="3" t="s">
@@ -12569,66 +12573,66 @@
       </c>
     </row>
     <row r="366" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A366" s="52" t="s">
+      <c r="A366" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B366" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C366" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D366" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E366" s="49"/>
-      <c r="F366" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G366" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H366" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I366" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J366" s="50" t="s">
+      <c r="B366" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E366" s="54"/>
+      <c r="F366" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G366" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H366" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I366" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J366" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K366" s="34"/>
     </row>
     <row r="367" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A367" s="60" t="s">
+      <c r="A367" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B367" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C367" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E367" s="49"/>
-      <c r="F367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J367" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K367" s="50" t="s">
+      <c r="B367" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E367" s="54"/>
+      <c r="F367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J367" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K367" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12951,58 +12955,58 @@
       </c>
     </row>
     <row r="380" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A380" s="47"/>
-      <c r="B380" s="47"/>
-      <c r="C380" s="47"/>
-      <c r="D380" s="47"/>
-      <c r="E380" s="47"/>
-      <c r="F380" s="47"/>
-      <c r="G380" s="47"/>
-      <c r="H380" s="47"/>
-      <c r="I380" s="47"/>
-      <c r="J380" s="47"/>
-      <c r="K380" s="47"/>
+      <c r="A380" s="60"/>
+      <c r="B380" s="60"/>
+      <c r="C380" s="60"/>
+      <c r="D380" s="60"/>
+      <c r="E380" s="60"/>
+      <c r="F380" s="60"/>
+      <c r="G380" s="60"/>
+      <c r="H380" s="60"/>
+      <c r="I380" s="60"/>
+      <c r="J380" s="60"/>
+      <c r="K380" s="60"/>
     </row>
     <row r="381" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A381" s="47"/>
-      <c r="B381" s="47"/>
-      <c r="C381" s="47"/>
-      <c r="D381" s="47"/>
-      <c r="E381" s="47"/>
-      <c r="F381" s="47"/>
-      <c r="G381" s="47"/>
-      <c r="H381" s="47"/>
-      <c r="I381" s="47"/>
-      <c r="J381" s="47"/>
-      <c r="K381" s="47"/>
+      <c r="A381" s="60"/>
+      <c r="B381" s="60"/>
+      <c r="C381" s="60"/>
+      <c r="D381" s="60"/>
+      <c r="E381" s="60"/>
+      <c r="F381" s="60"/>
+      <c r="G381" s="60"/>
+      <c r="H381" s="60"/>
+      <c r="I381" s="60"/>
+      <c r="J381" s="60"/>
+      <c r="K381" s="60"/>
     </row>
     <row r="382" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A382" s="48" t="s">
+      <c r="A382" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B382" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C382" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D382" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E382" s="49"/>
-      <c r="F382" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G382" s="51" t="s">
+      <c r="B382" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D382" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E382" s="54"/>
+      <c r="F382" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G382" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H382" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I382" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J382" s="50" t="s">
+      <c r="H382" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I382" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J382" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K382" s="2" t="s">
@@ -13010,47 +13014,47 @@
       </c>
     </row>
     <row r="383" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A383" s="52" t="s">
+      <c r="A383" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="B383" s="53"/>
-      <c r="C383" s="53"/>
-      <c r="D383" s="53"/>
-      <c r="E383" s="53"/>
-      <c r="F383" s="54"/>
-      <c r="G383" s="55"/>
-      <c r="H383" s="56"/>
-      <c r="I383" s="56"/>
-      <c r="J383" s="57"/>
+      <c r="B383" s="48"/>
+      <c r="C383" s="48"/>
+      <c r="D383" s="48"/>
+      <c r="E383" s="48"/>
+      <c r="F383" s="49"/>
+      <c r="G383" s="50"/>
+      <c r="H383" s="51"/>
+      <c r="I383" s="51"/>
+      <c r="J383" s="52"/>
       <c r="K383" s="5" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="384" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A384" s="48" t="s">
+      <c r="A384" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B384" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C384" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D384" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E384" s="49"/>
-      <c r="F384" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G384" s="58"/>
-      <c r="H384" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I384" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J384" s="50" t="s">
+      <c r="B384" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D384" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E384" s="54"/>
+      <c r="F384" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G384" s="56"/>
+      <c r="H384" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I384" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J384" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K384" s="3" t="s">
@@ -13058,66 +13062,66 @@
       </c>
     </row>
     <row r="385" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A385" s="52" t="s">
+      <c r="A385" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B385" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C385" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D385" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E385" s="49"/>
-      <c r="F385" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G385" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H385" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I385" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J385" s="50" t="s">
+      <c r="B385" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D385" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E385" s="54"/>
+      <c r="F385" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G385" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H385" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I385" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J385" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K385" s="34"/>
     </row>
     <row r="386" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A386" s="60" t="s">
+      <c r="A386" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B386" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C386" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E386" s="49"/>
-      <c r="F386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J386" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K386" s="50" t="s">
+      <c r="B386" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E386" s="54"/>
+      <c r="F386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J386" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K386" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13494,84 +13498,84 @@
       </c>
     </row>
     <row r="401" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A401" s="47"/>
-      <c r="B401" s="47"/>
-      <c r="C401" s="47"/>
-      <c r="D401" s="47"/>
-      <c r="E401" s="47"/>
-      <c r="F401" s="47"/>
-      <c r="G401" s="47"/>
-      <c r="H401" s="47"/>
-      <c r="I401" s="47"/>
-      <c r="J401" s="47"/>
-      <c r="K401" s="47"/>
+      <c r="A401" s="60"/>
+      <c r="B401" s="60"/>
+      <c r="C401" s="60"/>
+      <c r="D401" s="60"/>
+      <c r="E401" s="60"/>
+      <c r="F401" s="60"/>
+      <c r="G401" s="60"/>
+      <c r="H401" s="60"/>
+      <c r="I401" s="60"/>
+      <c r="J401" s="60"/>
+      <c r="K401" s="60"/>
     </row>
     <row r="402" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A402" s="47"/>
-      <c r="B402" s="47"/>
-      <c r="C402" s="47"/>
-      <c r="D402" s="47"/>
-      <c r="E402" s="47"/>
-      <c r="F402" s="47"/>
-      <c r="G402" s="47"/>
-      <c r="H402" s="47"/>
-      <c r="I402" s="47"/>
-      <c r="J402" s="47"/>
-      <c r="K402" s="47"/>
+      <c r="A402" s="60"/>
+      <c r="B402" s="60"/>
+      <c r="C402" s="60"/>
+      <c r="D402" s="60"/>
+      <c r="E402" s="60"/>
+      <c r="F402" s="60"/>
+      <c r="G402" s="60"/>
+      <c r="H402" s="60"/>
+      <c r="I402" s="60"/>
+      <c r="J402" s="60"/>
+      <c r="K402" s="60"/>
     </row>
     <row r="403" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A403" s="47"/>
-      <c r="B403" s="47"/>
-      <c r="C403" s="47"/>
-      <c r="D403" s="47"/>
-      <c r="E403" s="47"/>
-      <c r="F403" s="47"/>
-      <c r="G403" s="47"/>
-      <c r="H403" s="47"/>
-      <c r="I403" s="47"/>
-      <c r="J403" s="47"/>
-      <c r="K403" s="47"/>
+      <c r="A403" s="60"/>
+      <c r="B403" s="60"/>
+      <c r="C403" s="60"/>
+      <c r="D403" s="60"/>
+      <c r="E403" s="60"/>
+      <c r="F403" s="60"/>
+      <c r="G403" s="60"/>
+      <c r="H403" s="60"/>
+      <c r="I403" s="60"/>
+      <c r="J403" s="60"/>
+      <c r="K403" s="60"/>
     </row>
     <row r="404" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A404" s="47"/>
-      <c r="B404" s="47"/>
-      <c r="C404" s="47"/>
-      <c r="D404" s="47"/>
-      <c r="E404" s="47"/>
-      <c r="F404" s="47"/>
-      <c r="G404" s="47"/>
-      <c r="H404" s="47"/>
-      <c r="I404" s="47"/>
-      <c r="J404" s="47"/>
-      <c r="K404" s="47"/>
+      <c r="A404" s="60"/>
+      <c r="B404" s="60"/>
+      <c r="C404" s="60"/>
+      <c r="D404" s="60"/>
+      <c r="E404" s="60"/>
+      <c r="F404" s="60"/>
+      <c r="G404" s="60"/>
+      <c r="H404" s="60"/>
+      <c r="I404" s="60"/>
+      <c r="J404" s="60"/>
+      <c r="K404" s="60"/>
     </row>
     <row r="405" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A405" s="48" t="s">
+      <c r="A405" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B405" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C405" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D405" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E405" s="49"/>
-      <c r="F405" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G405" s="51" t="s">
+      <c r="B405" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D405" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E405" s="54"/>
+      <c r="F405" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G405" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H405" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I405" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J405" s="50" t="s">
+      <c r="H405" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I405" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J405" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K405" s="2" t="s">
@@ -13579,47 +13583,47 @@
       </c>
     </row>
     <row r="406" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A406" s="52" t="s">
+      <c r="A406" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="B406" s="53"/>
-      <c r="C406" s="53"/>
-      <c r="D406" s="53"/>
-      <c r="E406" s="53"/>
-      <c r="F406" s="54"/>
-      <c r="G406" s="55"/>
-      <c r="H406" s="56"/>
-      <c r="I406" s="56"/>
-      <c r="J406" s="57"/>
+      <c r="B406" s="48"/>
+      <c r="C406" s="48"/>
+      <c r="D406" s="48"/>
+      <c r="E406" s="48"/>
+      <c r="F406" s="49"/>
+      <c r="G406" s="50"/>
+      <c r="H406" s="51"/>
+      <c r="I406" s="51"/>
+      <c r="J406" s="52"/>
       <c r="K406" s="5" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="407" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A407" s="48" t="s">
+      <c r="A407" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B407" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C407" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D407" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E407" s="49"/>
-      <c r="F407" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G407" s="58"/>
-      <c r="H407" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I407" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J407" s="50" t="s">
+      <c r="B407" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D407" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E407" s="54"/>
+      <c r="F407" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G407" s="56"/>
+      <c r="H407" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I407" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J407" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K407" s="3" t="s">
@@ -13627,66 +13631,66 @@
       </c>
     </row>
     <row r="408" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A408" s="52" t="s">
+      <c r="A408" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B408" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C408" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D408" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E408" s="49"/>
-      <c r="F408" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G408" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H408" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I408" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J408" s="50" t="s">
+      <c r="B408" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D408" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E408" s="54"/>
+      <c r="F408" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G408" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H408" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I408" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J408" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K408" s="34"/>
     </row>
     <row r="409" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A409" s="60" t="s">
+      <c r="A409" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B409" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C409" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E409" s="49"/>
-      <c r="F409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J409" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K409" s="50" t="s">
+      <c r="B409" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E409" s="54"/>
+      <c r="F409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J409" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K409" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13832,58 +13836,58 @@
       </c>
     </row>
     <row r="415" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A415" s="47"/>
-      <c r="B415" s="47"/>
-      <c r="C415" s="47"/>
-      <c r="D415" s="47"/>
-      <c r="E415" s="47"/>
-      <c r="F415" s="47"/>
-      <c r="G415" s="47"/>
-      <c r="H415" s="47"/>
-      <c r="I415" s="47"/>
-      <c r="J415" s="47"/>
-      <c r="K415" s="47"/>
+      <c r="A415" s="60"/>
+      <c r="B415" s="60"/>
+      <c r="C415" s="60"/>
+      <c r="D415" s="60"/>
+      <c r="E415" s="60"/>
+      <c r="F415" s="60"/>
+      <c r="G415" s="60"/>
+      <c r="H415" s="60"/>
+      <c r="I415" s="60"/>
+      <c r="J415" s="60"/>
+      <c r="K415" s="60"/>
     </row>
     <row r="416" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A416" s="47"/>
-      <c r="B416" s="47"/>
-      <c r="C416" s="47"/>
-      <c r="D416" s="47"/>
-      <c r="E416" s="47"/>
-      <c r="F416" s="47"/>
-      <c r="G416" s="47"/>
-      <c r="H416" s="47"/>
-      <c r="I416" s="47"/>
-      <c r="J416" s="47"/>
-      <c r="K416" s="47"/>
+      <c r="A416" s="60"/>
+      <c r="B416" s="60"/>
+      <c r="C416" s="60"/>
+      <c r="D416" s="60"/>
+      <c r="E416" s="60"/>
+      <c r="F416" s="60"/>
+      <c r="G416" s="60"/>
+      <c r="H416" s="60"/>
+      <c r="I416" s="60"/>
+      <c r="J416" s="60"/>
+      <c r="K416" s="60"/>
     </row>
     <row r="417" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A417" s="48" t="s">
+      <c r="A417" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B417" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C417" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D417" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E417" s="49"/>
-      <c r="F417" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G417" s="51" t="s">
+      <c r="B417" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D417" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E417" s="54"/>
+      <c r="F417" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G417" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H417" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I417" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J417" s="50" t="s">
+      <c r="H417" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I417" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J417" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K417" s="2" t="s">
@@ -13891,47 +13895,47 @@
       </c>
     </row>
     <row r="418" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A418" s="52" t="s">
+      <c r="A418" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="B418" s="53"/>
-      <c r="C418" s="53"/>
-      <c r="D418" s="53"/>
-      <c r="E418" s="53"/>
-      <c r="F418" s="54"/>
-      <c r="G418" s="55"/>
-      <c r="H418" s="56"/>
-      <c r="I418" s="56"/>
-      <c r="J418" s="57"/>
+      <c r="B418" s="48"/>
+      <c r="C418" s="48"/>
+      <c r="D418" s="48"/>
+      <c r="E418" s="48"/>
+      <c r="F418" s="49"/>
+      <c r="G418" s="50"/>
+      <c r="H418" s="51"/>
+      <c r="I418" s="51"/>
+      <c r="J418" s="52"/>
       <c r="K418" s="5" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="419" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A419" s="48" t="s">
+      <c r="A419" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B419" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C419" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D419" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E419" s="49"/>
-      <c r="F419" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G419" s="58"/>
-      <c r="H419" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I419" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J419" s="50" t="s">
+      <c r="B419" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D419" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E419" s="54"/>
+      <c r="F419" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G419" s="56"/>
+      <c r="H419" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I419" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J419" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K419" s="3" t="s">
@@ -13939,66 +13943,66 @@
       </c>
     </row>
     <row r="420" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A420" s="52" t="s">
+      <c r="A420" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B420" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C420" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D420" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E420" s="49"/>
-      <c r="F420" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G420" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H420" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I420" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J420" s="50" t="s">
+      <c r="B420" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D420" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E420" s="54"/>
+      <c r="F420" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G420" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H420" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I420" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J420" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K420" s="34"/>
     </row>
     <row r="421" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A421" s="60" t="s">
+      <c r="A421" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B421" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C421" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E421" s="49"/>
-      <c r="F421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J421" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K421" s="50" t="s">
+      <c r="B421" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E421" s="54"/>
+      <c r="F421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J421" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K421" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14587,58 +14591,58 @@
       </c>
     </row>
     <row r="444" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A444" s="47"/>
-      <c r="B444" s="47"/>
-      <c r="C444" s="47"/>
-      <c r="D444" s="47"/>
-      <c r="E444" s="47"/>
-      <c r="F444" s="47"/>
-      <c r="G444" s="47"/>
-      <c r="H444" s="47"/>
-      <c r="I444" s="47"/>
-      <c r="J444" s="47"/>
-      <c r="K444" s="47"/>
+      <c r="A444" s="60"/>
+      <c r="B444" s="60"/>
+      <c r="C444" s="60"/>
+      <c r="D444" s="60"/>
+      <c r="E444" s="60"/>
+      <c r="F444" s="60"/>
+      <c r="G444" s="60"/>
+      <c r="H444" s="60"/>
+      <c r="I444" s="60"/>
+      <c r="J444" s="60"/>
+      <c r="K444" s="60"/>
     </row>
     <row r="445" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A445" s="47"/>
-      <c r="B445" s="47"/>
-      <c r="C445" s="47"/>
-      <c r="D445" s="47"/>
-      <c r="E445" s="47"/>
-      <c r="F445" s="47"/>
-      <c r="G445" s="47"/>
-      <c r="H445" s="47"/>
-      <c r="I445" s="47"/>
-      <c r="J445" s="47"/>
-      <c r="K445" s="47"/>
+      <c r="A445" s="60"/>
+      <c r="B445" s="60"/>
+      <c r="C445" s="60"/>
+      <c r="D445" s="60"/>
+      <c r="E445" s="60"/>
+      <c r="F445" s="60"/>
+      <c r="G445" s="60"/>
+      <c r="H445" s="60"/>
+      <c r="I445" s="60"/>
+      <c r="J445" s="60"/>
+      <c r="K445" s="60"/>
     </row>
     <row r="446" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A446" s="48" t="s">
+      <c r="A446" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="B446" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C446" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D446" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E446" s="49"/>
-      <c r="F446" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G446" s="51" t="s">
+      <c r="B446" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D446" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E446" s="54"/>
+      <c r="F446" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G446" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="H446" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I446" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J446" s="50" t="s">
+      <c r="H446" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I446" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J446" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K446" s="2" t="s">
@@ -14646,47 +14650,47 @@
       </c>
     </row>
     <row r="447" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A447" s="52" t="s">
+      <c r="A447" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="B447" s="53"/>
-      <c r="C447" s="53"/>
-      <c r="D447" s="53"/>
-      <c r="E447" s="53"/>
-      <c r="F447" s="54"/>
-      <c r="G447" s="55"/>
-      <c r="H447" s="56"/>
-      <c r="I447" s="56"/>
-      <c r="J447" s="57"/>
+      <c r="B447" s="48"/>
+      <c r="C447" s="48"/>
+      <c r="D447" s="48"/>
+      <c r="E447" s="48"/>
+      <c r="F447" s="49"/>
+      <c r="G447" s="50"/>
+      <c r="H447" s="51"/>
+      <c r="I447" s="51"/>
+      <c r="J447" s="52"/>
       <c r="K447" s="5" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A448" s="48" t="s">
+      <c r="A448" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="B448" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C448" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D448" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E448" s="49"/>
-      <c r="F448" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G448" s="58"/>
-      <c r="H448" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I448" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J448" s="50" t="s">
+      <c r="B448" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D448" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E448" s="54"/>
+      <c r="F448" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G448" s="56"/>
+      <c r="H448" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I448" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J448" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K448" s="3" t="s">
@@ -14694,66 +14698,66 @@
       </c>
     </row>
     <row r="449" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A449" s="52" t="s">
+      <c r="A449" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="B449" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C449" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D449" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E449" s="49"/>
-      <c r="F449" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="G449" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="H449" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I449" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J449" s="50" t="s">
+      <c r="B449" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D449" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E449" s="54"/>
+      <c r="F449" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="G449" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H449" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I449" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J449" s="55" t="s">
         <v>0</v>
       </c>
       <c r="K449" s="34"/>
     </row>
     <row r="450" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A450" s="60" t="s">
+      <c r="A450" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="B450" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C450" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E450" s="49"/>
-      <c r="F450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="H450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="I450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="J450" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="K450" s="50" t="s">
+      <c r="B450" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="D450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E450" s="54"/>
+      <c r="F450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="G450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="H450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J450" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K450" s="55" t="s">
         <v>0</v>
       </c>
     </row>
@@ -15550,90 +15554,180 @@
       </c>
     </row>
     <row r="483" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A483" s="47"/>
-      <c r="B483" s="47"/>
-      <c r="C483" s="47"/>
-      <c r="D483" s="47"/>
-      <c r="E483" s="47"/>
-      <c r="F483" s="47"/>
-      <c r="G483" s="47"/>
-      <c r="H483" s="47"/>
-      <c r="I483" s="47"/>
-      <c r="J483" s="47"/>
-      <c r="K483" s="47"/>
+      <c r="A483" s="60"/>
+      <c r="B483" s="60"/>
+      <c r="C483" s="60"/>
+      <c r="D483" s="60"/>
+      <c r="E483" s="60"/>
+      <c r="F483" s="60"/>
+      <c r="G483" s="60"/>
+      <c r="H483" s="60"/>
+      <c r="I483" s="60"/>
+      <c r="J483" s="60"/>
+      <c r="K483" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="254">
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:J140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="G141:J141"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="G142:J142"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="G163:J163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:K164"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:K143"/>
-    <mergeCell ref="A158:K159"/>
-    <mergeCell ref="A160:F160"/>
-    <mergeCell ref="G160:J160"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="G161:J161"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="G162:J162"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:J120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:J121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:K122"/>
-    <mergeCell ref="A137:K138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:J139"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:J100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:K101"/>
-    <mergeCell ref="A116:K117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:J118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="G119:J119"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="A28:K29"/>
-    <mergeCell ref="G76:J76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:J77"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A53:K54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A483:K483"/>
+    <mergeCell ref="A445:K445"/>
+    <mergeCell ref="A446:F446"/>
+    <mergeCell ref="G446:J446"/>
+    <mergeCell ref="A447:F447"/>
+    <mergeCell ref="G447:J447"/>
+    <mergeCell ref="A448:F448"/>
+    <mergeCell ref="G448:J448"/>
+    <mergeCell ref="A449:F449"/>
+    <mergeCell ref="G449:J449"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="C450:K450"/>
+    <mergeCell ref="A444:K444"/>
+    <mergeCell ref="A416:K416"/>
+    <mergeCell ref="A408:F408"/>
+    <mergeCell ref="G408:J408"/>
+    <mergeCell ref="A409:B409"/>
+    <mergeCell ref="C409:K409"/>
+    <mergeCell ref="A415:K415"/>
+    <mergeCell ref="A405:F405"/>
+    <mergeCell ref="G405:J405"/>
+    <mergeCell ref="A406:F406"/>
+    <mergeCell ref="G406:J406"/>
+    <mergeCell ref="A407:F407"/>
+    <mergeCell ref="G407:J407"/>
+    <mergeCell ref="A417:F417"/>
+    <mergeCell ref="G417:J417"/>
+    <mergeCell ref="A418:F418"/>
+    <mergeCell ref="G418:J418"/>
+    <mergeCell ref="A419:F419"/>
+    <mergeCell ref="G419:J419"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="G420:J420"/>
+    <mergeCell ref="A421:B421"/>
+    <mergeCell ref="C421:K421"/>
+    <mergeCell ref="A403:K404"/>
+    <mergeCell ref="A385:F385"/>
+    <mergeCell ref="G385:J385"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="C386:K386"/>
+    <mergeCell ref="A401:K402"/>
+    <mergeCell ref="A382:F382"/>
+    <mergeCell ref="G382:J382"/>
+    <mergeCell ref="A383:F383"/>
+    <mergeCell ref="G383:J383"/>
+    <mergeCell ref="A384:F384"/>
+    <mergeCell ref="G384:J384"/>
+    <mergeCell ref="A380:K381"/>
+    <mergeCell ref="A366:F366"/>
+    <mergeCell ref="G366:J366"/>
+    <mergeCell ref="A367:B367"/>
+    <mergeCell ref="C367:K367"/>
+    <mergeCell ref="A363:F363"/>
+    <mergeCell ref="G363:J363"/>
+    <mergeCell ref="A364:F364"/>
+    <mergeCell ref="G364:J364"/>
+    <mergeCell ref="A365:F365"/>
+    <mergeCell ref="G365:J365"/>
+    <mergeCell ref="A362:K362"/>
+    <mergeCell ref="A342:F342"/>
+    <mergeCell ref="G342:J342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="C343:K343"/>
+    <mergeCell ref="A361:K361"/>
+    <mergeCell ref="A339:F339"/>
+    <mergeCell ref="G339:J339"/>
+    <mergeCell ref="A340:F340"/>
+    <mergeCell ref="G340:J340"/>
+    <mergeCell ref="A341:F341"/>
+    <mergeCell ref="G341:J341"/>
+    <mergeCell ref="A330:F330"/>
+    <mergeCell ref="G330:J330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="C331:K331"/>
+    <mergeCell ref="A337:K338"/>
+    <mergeCell ref="A327:F327"/>
+    <mergeCell ref="G327:J327"/>
+    <mergeCell ref="A328:F328"/>
+    <mergeCell ref="G328:J328"/>
+    <mergeCell ref="A329:F329"/>
+    <mergeCell ref="G329:J329"/>
+    <mergeCell ref="A318:F318"/>
+    <mergeCell ref="G318:J318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:K319"/>
+    <mergeCell ref="A325:K326"/>
+    <mergeCell ref="A315:F315"/>
+    <mergeCell ref="G315:J315"/>
+    <mergeCell ref="A316:F316"/>
+    <mergeCell ref="G316:J316"/>
+    <mergeCell ref="A317:F317"/>
+    <mergeCell ref="G317:J317"/>
+    <mergeCell ref="A304:F304"/>
+    <mergeCell ref="G304:J304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="C305:K305"/>
+    <mergeCell ref="A313:K314"/>
+    <mergeCell ref="A301:F301"/>
+    <mergeCell ref="G301:J301"/>
+    <mergeCell ref="A302:F302"/>
+    <mergeCell ref="G302:J302"/>
+    <mergeCell ref="A303:F303"/>
+    <mergeCell ref="G303:J303"/>
+    <mergeCell ref="A286:F286"/>
+    <mergeCell ref="G286:J286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:K287"/>
+    <mergeCell ref="A299:K300"/>
+    <mergeCell ref="A283:F283"/>
+    <mergeCell ref="G283:J283"/>
+    <mergeCell ref="A284:F284"/>
+    <mergeCell ref="G284:J284"/>
+    <mergeCell ref="A285:F285"/>
+    <mergeCell ref="G285:J285"/>
+    <mergeCell ref="A269:F269"/>
+    <mergeCell ref="G269:J269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:K270"/>
+    <mergeCell ref="A281:K282"/>
+    <mergeCell ref="A266:F266"/>
+    <mergeCell ref="G266:J266"/>
+    <mergeCell ref="A267:F267"/>
+    <mergeCell ref="G267:J267"/>
+    <mergeCell ref="A268:F268"/>
+    <mergeCell ref="G268:J268"/>
+    <mergeCell ref="A264:K265"/>
+    <mergeCell ref="A252:F252"/>
+    <mergeCell ref="G252:J252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:K253"/>
+    <mergeCell ref="A249:F249"/>
+    <mergeCell ref="G249:J249"/>
+    <mergeCell ref="A250:F250"/>
+    <mergeCell ref="G250:J250"/>
+    <mergeCell ref="A251:F251"/>
+    <mergeCell ref="G251:J251"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="G226:J226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:K227"/>
+    <mergeCell ref="A247:K248"/>
+    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="G224:J224"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="G207:J207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:K208"/>
+    <mergeCell ref="A221:K222"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="G204:J204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="G205:J205"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="G206:J206"/>
+    <mergeCell ref="A202:K203"/>
+    <mergeCell ref="A184:F184"/>
+    <mergeCell ref="G184:J184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:K185"/>
+    <mergeCell ref="A200:K201"/>
     <mergeCell ref="A181:F181"/>
     <mergeCell ref="G181:J181"/>
     <mergeCell ref="A182:F182"/>
@@ -15658,166 +15752,76 @@
     <mergeCell ref="G98:J98"/>
     <mergeCell ref="A99:F99"/>
     <mergeCell ref="G99:J99"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="G204:J204"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="G205:J205"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="G206:J206"/>
-    <mergeCell ref="A202:K203"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="G184:J184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:K185"/>
-    <mergeCell ref="A200:K201"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="G226:J226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:K227"/>
-    <mergeCell ref="A247:K248"/>
-    <mergeCell ref="A224:F224"/>
-    <mergeCell ref="G224:J224"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="G207:J207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:K208"/>
-    <mergeCell ref="A221:K222"/>
-    <mergeCell ref="A264:K265"/>
-    <mergeCell ref="A252:F252"/>
-    <mergeCell ref="G252:J252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:K253"/>
-    <mergeCell ref="A249:F249"/>
-    <mergeCell ref="G249:J249"/>
-    <mergeCell ref="A250:F250"/>
-    <mergeCell ref="G250:J250"/>
-    <mergeCell ref="A251:F251"/>
-    <mergeCell ref="G251:J251"/>
-    <mergeCell ref="A269:F269"/>
-    <mergeCell ref="G269:J269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C270:K270"/>
-    <mergeCell ref="A281:K282"/>
-    <mergeCell ref="A266:F266"/>
-    <mergeCell ref="G266:J266"/>
-    <mergeCell ref="A267:F267"/>
-    <mergeCell ref="G267:J267"/>
-    <mergeCell ref="A268:F268"/>
-    <mergeCell ref="G268:J268"/>
-    <mergeCell ref="A286:F286"/>
-    <mergeCell ref="G286:J286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="C287:K287"/>
-    <mergeCell ref="A299:K300"/>
-    <mergeCell ref="A283:F283"/>
-    <mergeCell ref="G283:J283"/>
-    <mergeCell ref="A284:F284"/>
-    <mergeCell ref="G284:J284"/>
-    <mergeCell ref="A285:F285"/>
-    <mergeCell ref="G285:J285"/>
-    <mergeCell ref="A304:F304"/>
-    <mergeCell ref="G304:J304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="C305:K305"/>
-    <mergeCell ref="A313:K314"/>
-    <mergeCell ref="A301:F301"/>
-    <mergeCell ref="G301:J301"/>
-    <mergeCell ref="A302:F302"/>
-    <mergeCell ref="G302:J302"/>
-    <mergeCell ref="A303:F303"/>
-    <mergeCell ref="G303:J303"/>
-    <mergeCell ref="A318:F318"/>
-    <mergeCell ref="G318:J318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:K319"/>
-    <mergeCell ref="A325:K326"/>
-    <mergeCell ref="A315:F315"/>
-    <mergeCell ref="G315:J315"/>
-    <mergeCell ref="A316:F316"/>
-    <mergeCell ref="G316:J316"/>
-    <mergeCell ref="A317:F317"/>
-    <mergeCell ref="G317:J317"/>
-    <mergeCell ref="A330:F330"/>
-    <mergeCell ref="G330:J330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="C331:K331"/>
-    <mergeCell ref="A337:K338"/>
-    <mergeCell ref="A327:F327"/>
-    <mergeCell ref="G327:J327"/>
-    <mergeCell ref="A328:F328"/>
-    <mergeCell ref="G328:J328"/>
-    <mergeCell ref="A329:F329"/>
-    <mergeCell ref="G329:J329"/>
-    <mergeCell ref="A362:K362"/>
-    <mergeCell ref="A342:F342"/>
-    <mergeCell ref="G342:J342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="C343:K343"/>
-    <mergeCell ref="A361:K361"/>
-    <mergeCell ref="A339:F339"/>
-    <mergeCell ref="G339:J339"/>
-    <mergeCell ref="A340:F340"/>
-    <mergeCell ref="G340:J340"/>
-    <mergeCell ref="A341:F341"/>
-    <mergeCell ref="G341:J341"/>
-    <mergeCell ref="A380:K381"/>
-    <mergeCell ref="A366:F366"/>
-    <mergeCell ref="G366:J366"/>
-    <mergeCell ref="A367:B367"/>
-    <mergeCell ref="C367:K367"/>
-    <mergeCell ref="A363:F363"/>
-    <mergeCell ref="G363:J363"/>
-    <mergeCell ref="A364:F364"/>
-    <mergeCell ref="G364:J364"/>
-    <mergeCell ref="A365:F365"/>
-    <mergeCell ref="G365:J365"/>
-    <mergeCell ref="A403:K404"/>
-    <mergeCell ref="A385:F385"/>
-    <mergeCell ref="G385:J385"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="C386:K386"/>
-    <mergeCell ref="A401:K402"/>
-    <mergeCell ref="A382:F382"/>
-    <mergeCell ref="G382:J382"/>
-    <mergeCell ref="A383:F383"/>
-    <mergeCell ref="G383:J383"/>
-    <mergeCell ref="A384:F384"/>
-    <mergeCell ref="G384:J384"/>
-    <mergeCell ref="A444:K444"/>
-    <mergeCell ref="A416:K416"/>
-    <mergeCell ref="A408:F408"/>
-    <mergeCell ref="G408:J408"/>
-    <mergeCell ref="A409:B409"/>
-    <mergeCell ref="C409:K409"/>
-    <mergeCell ref="A415:K415"/>
-    <mergeCell ref="A405:F405"/>
-    <mergeCell ref="G405:J405"/>
-    <mergeCell ref="A406:F406"/>
-    <mergeCell ref="G406:J406"/>
-    <mergeCell ref="A407:F407"/>
-    <mergeCell ref="G407:J407"/>
-    <mergeCell ref="A417:F417"/>
-    <mergeCell ref="G417:J417"/>
-    <mergeCell ref="A418:F418"/>
-    <mergeCell ref="G418:J418"/>
-    <mergeCell ref="A419:F419"/>
-    <mergeCell ref="G419:J419"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="G420:J420"/>
-    <mergeCell ref="A421:B421"/>
-    <mergeCell ref="C421:K421"/>
-    <mergeCell ref="A483:K483"/>
-    <mergeCell ref="A445:K445"/>
-    <mergeCell ref="A446:F446"/>
-    <mergeCell ref="G446:J446"/>
-    <mergeCell ref="A447:F447"/>
-    <mergeCell ref="G447:J447"/>
-    <mergeCell ref="A448:F448"/>
-    <mergeCell ref="G448:J448"/>
-    <mergeCell ref="A449:F449"/>
-    <mergeCell ref="G449:J449"/>
-    <mergeCell ref="A450:B450"/>
-    <mergeCell ref="C450:K450"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A28:K29"/>
+    <mergeCell ref="G76:J76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:J77"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A53:K54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:J100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:K101"/>
+    <mergeCell ref="A116:K117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:J118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="G119:J119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:J120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:J121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:K122"/>
+    <mergeCell ref="A137:K138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:J139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:J140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="G141:J141"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="G142:J142"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="G163:J163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:K164"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:K143"/>
+    <mergeCell ref="A158:K159"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="G160:J160"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="G161:J161"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="G162:J162"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
